--- a/novelty_scoring/autdata_test_novelty_combined.xlsx
+++ b/novelty_scoring/autdata_test_novelty_combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yyu/Box Sync/ORG-SCHOOL-WCAS-PSYCHOLOGY-BEEMAN-LAB/COAT/scoring/novelty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhec8\Documents\Northwestern_SROP\AUT-Scoring\novelty_scoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5659E8-ADF1-EF4E-9D6D-8749719E40D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E706CD5-7B1A-481D-B17A-A00296050A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26100" yWindow="4290" windowWidth="21570" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cup" sheetId="1" r:id="rId1"/>
@@ -1913,16 +1913,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D78">
         <f>CORREL(D2:D77,E2:E77)</f>
         <v>0.67723792335209909</v>
@@ -3249,13 +3249,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3272,7 +3275,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3323,7 +3326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -3340,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -3357,7 +3360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -3391,7 +3394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3476,7 +3479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3510,7 +3513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3527,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -3561,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -3714,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -3731,7 +3734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -3748,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -3782,7 +3785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3833,7 +3836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3867,7 +3870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3918,7 +3921,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -4071,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -4088,7 +4091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -4122,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -4136,7 +4139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -4153,7 +4156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -4170,7 +4173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -4187,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -4238,7 +4241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -4323,7 +4326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -4340,7 +4343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -4357,7 +4360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -4391,7 +4394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -4425,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -4459,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -4476,7 +4479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -4527,7 +4530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -4561,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -4578,7 +4581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -4595,7 +4598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -4612,7 +4615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -4629,7 +4632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -4663,7 +4666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -4697,7 +4700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -4714,7 +4717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D88">
         <f>CORREL(D2:D87,E2:E87)</f>
         <v>0.6671443819578321</v>
@@ -4746,16 +4749,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:XFD87"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4772,7 +4775,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4789,7 +4792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4806,7 +4809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4823,7 +4826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4840,7 +4843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -4857,7 +4860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -4891,7 +4894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -4908,7 +4911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>171</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>171</v>
       </c>
@@ -4942,7 +4945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -4959,7 +4962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>171</v>
       </c>
@@ -4976,7 +4979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>171</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>171</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -5027,7 +5030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -5180,7 +5183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -5197,7 +5200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -5214,7 +5217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -5231,7 +5234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -5248,7 +5251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -5265,7 +5268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -5282,7 +5285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -5299,7 +5302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -5350,7 +5353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -5367,7 +5370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -5384,7 +5387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -5418,7 +5421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -5435,7 +5438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>172</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -5469,7 +5472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>173</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>173</v>
       </c>
@@ -5537,7 +5540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>173</v>
       </c>
@@ -5554,7 +5557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -5588,7 +5591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -5622,7 +5625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -5639,7 +5642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -5656,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -5673,7 +5676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -5707,7 +5710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -5741,7 +5744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -5775,7 +5778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -5792,7 +5795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -5809,7 +5812,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -5843,7 +5846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -5911,7 +5914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -5928,7 +5931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -5945,7 +5948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -5962,7 +5965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -5979,7 +5982,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>174</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>174</v>
       </c>
@@ -6013,7 +6016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>174</v>
       </c>
@@ -6030,7 +6033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>174</v>
       </c>
@@ -6047,7 +6050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -6064,7 +6067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -6081,7 +6084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -6098,7 +6101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -6115,7 +6118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -6149,7 +6152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>175</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -6183,7 +6186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>175</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>176</v>
       </c>
@@ -6217,7 +6220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>176</v>
       </c>
@@ -6251,7 +6254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -6268,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D90">
         <f>CORREL(D2:D89,E2:E89)</f>
         <v>0.39002660484599411</v>
@@ -6283,13 +6286,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6306,7 +6312,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6323,7 +6329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6340,7 +6346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6357,7 +6363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6374,7 +6380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6391,7 +6397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6408,7 +6414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -6425,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -6442,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -6459,7 +6465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -6476,7 +6482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -6493,7 +6499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -6510,7 +6516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -6527,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -6544,7 +6550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -6561,7 +6567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -6578,7 +6584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -6595,7 +6601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -6612,7 +6618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -6646,7 +6652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>173</v>
       </c>
@@ -6663,7 +6669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -6680,7 +6686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -6697,7 +6703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -6714,7 +6720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -6731,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -6748,7 +6754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -6765,7 +6771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -6782,7 +6788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -6799,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>174</v>
       </c>
@@ -6816,7 +6822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -6833,7 +6839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -6850,7 +6856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -6867,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -6884,7 +6890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -6901,7 +6907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -6918,7 +6924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -6935,7 +6941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -6952,7 +6958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -6969,7 +6975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>175</v>
       </c>
@@ -6986,7 +6992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>175</v>
       </c>
@@ -7003,7 +7009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -7020,7 +7026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>175</v>
       </c>
@@ -7037,7 +7043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -7054,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -7071,7 +7077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -7088,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -7105,7 +7111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -7122,7 +7128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -7139,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>176</v>
       </c>
@@ -7156,7 +7162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -7173,7 +7179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D53">
         <f>CORREL(D2:D52,E2:E52)</f>
         <v>0.66910711169668324</v>
@@ -7192,9 +7198,9 @@
       <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7211,7 +7217,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -7228,7 +7234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -7245,7 +7251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -7262,7 +7268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7279,7 +7285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7296,7 +7302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -7313,7 +7319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -7330,7 +7336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -7347,7 +7353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -7364,7 +7370,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -7381,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -7398,7 +7404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -7415,7 +7421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -7432,7 +7438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>171</v>
       </c>
@@ -7449,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>171</v>
       </c>
@@ -7466,7 +7472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -7483,7 +7489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>171</v>
       </c>
@@ -7500,7 +7506,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>171</v>
       </c>
@@ -7517,7 +7523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -7534,7 +7540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -7551,7 +7557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -7568,7 +7574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -7585,7 +7591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -7602,7 +7608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -7619,7 +7625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -7636,7 +7642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -7653,7 +7659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -7670,7 +7676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -7687,7 +7693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -7704,7 +7710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -7721,7 +7727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -7738,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -7755,7 +7761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -7772,7 +7778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -7789,7 +7795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -7806,7 +7812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -7823,7 +7829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -7840,7 +7846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -7857,7 +7863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -7874,7 +7880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>172</v>
       </c>
@@ -7891,7 +7897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -7908,7 +7914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -7925,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -7942,7 +7948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -7959,7 +7965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -7976,7 +7982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -7993,7 +7999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -8010,7 +8016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -8027,7 +8033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -8044,7 +8050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -8061,7 +8067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -8078,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -8095,7 +8101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -8112,7 +8118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -8129,7 +8135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -8146,7 +8152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -8163,7 +8169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -8180,7 +8186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -8197,7 +8203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -8214,7 +8220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -8231,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -8248,7 +8254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -8265,7 +8271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -8282,7 +8288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -8299,7 +8305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -8316,7 +8322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -8333,7 +8339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -8350,7 +8356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -8367,7 +8373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -8384,7 +8390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -8401,7 +8407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -8418,7 +8424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -8435,7 +8441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>174</v>
       </c>
@@ -8452,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>174</v>
       </c>
@@ -8469,7 +8475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>174</v>
       </c>
@@ -8486,7 +8492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -8503,7 +8509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>174</v>
       </c>
@@ -8520,7 +8526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>175</v>
       </c>
@@ -8537,7 +8543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>175</v>
       </c>
@@ -8554,7 +8560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -8571,7 +8577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -8588,7 +8594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -8605,7 +8611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -8622,7 +8628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D85">
         <f>CORREL(D2:D84,E2:E84)</f>
         <v>0.76392786181760919</v>
@@ -8641,9 +8647,9 @@
       <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8660,7 +8666,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -8677,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -8694,7 +8700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8711,7 +8717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -8728,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8745,7 +8751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8762,7 +8768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -8779,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -8796,7 +8802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>171</v>
       </c>
@@ -8813,7 +8819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>171</v>
       </c>
@@ -8830,7 +8836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -8847,7 +8853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -8864,7 +8870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -8881,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -8898,7 +8904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -8915,7 +8921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -8932,7 +8938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -8949,7 +8955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -8966,7 +8972,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -8983,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -9000,7 +9006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -9017,7 +9023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -9034,7 +9040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -9051,7 +9057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -9068,7 +9074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -9085,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -9102,7 +9108,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>172</v>
       </c>
@@ -9119,7 +9125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>172</v>
       </c>
@@ -9136,7 +9142,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>172</v>
       </c>
@@ -9153,7 +9159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>172</v>
       </c>
@@ -9170,7 +9176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>172</v>
       </c>
@@ -9187,7 +9193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -9204,7 +9210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>173</v>
       </c>
@@ -9221,7 +9227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>173</v>
       </c>
@@ -9238,7 +9244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -9255,7 +9261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -9272,7 +9278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -9289,7 +9295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -9306,7 +9312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -9323,7 +9329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -9340,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -9357,7 +9363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -9374,7 +9380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -9391,7 +9397,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -9408,7 +9414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -9425,7 +9431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -9442,7 +9448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -9459,7 +9465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -9476,7 +9482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -9493,7 +9499,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -9510,7 +9516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -9527,7 +9533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -9544,7 +9550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -9561,7 +9567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -9578,7 +9584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -9595,7 +9601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -9612,7 +9618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -9629,7 +9635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -9646,7 +9652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -9663,7 +9669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -9680,7 +9686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -9697,7 +9703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -9714,7 +9720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -9731,7 +9737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -9748,7 +9754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>174</v>
       </c>
@@ -9765,7 +9771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>174</v>
       </c>
@@ -9782,7 +9788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>174</v>
       </c>
@@ -9799,7 +9805,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>174</v>
       </c>
@@ -9816,7 +9822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>174</v>
       </c>
@@ -9833,7 +9839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>176</v>
       </c>
@@ -9850,7 +9856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>176</v>
       </c>
@@ -9867,7 +9873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -9884,7 +9890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D74">
         <f>CORREL(D2:D73,E2:E73)</f>
         <v>0.70216915343216979</v>
@@ -9903,12 +9909,12 @@
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9925,7 +9931,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -9942,7 +9948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9959,7 +9965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9976,7 +9982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9993,7 +9999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -10010,7 +10016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>171</v>
       </c>
@@ -10027,7 +10033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -10044,7 +10050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -10061,7 +10067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>171</v>
       </c>
@@ -10078,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>171</v>
       </c>
@@ -10095,7 +10101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -10112,7 +10118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -10129,7 +10135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -10146,7 +10152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -10163,7 +10169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -10180,7 +10186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -10197,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -10214,7 +10220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -10231,7 +10237,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -10248,7 +10254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -10265,7 +10271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -10282,7 +10288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -10299,7 +10305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>172</v>
       </c>
@@ -10316,7 +10322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -10333,7 +10339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -10350,7 +10356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -10367,7 +10373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>173</v>
       </c>
@@ -10384,7 +10390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -10401,7 +10407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -10418,7 +10424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -10435,7 +10441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -10452,7 +10458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -10469,7 +10475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -10486,7 +10492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -10503,7 +10509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -10520,7 +10526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -10537,7 +10543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -10554,7 +10560,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -10571,7 +10577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -10588,7 +10594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -10605,7 +10611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -10622,7 +10628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -10639,7 +10645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -10656,7 +10662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -10673,7 +10679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -10690,7 +10696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -10707,7 +10713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -10724,7 +10730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -10741,7 +10747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -10758,7 +10764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -10775,7 +10781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -10792,7 +10798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -10809,7 +10815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -10826,7 +10832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -10843,7 +10849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -10860,7 +10866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -10877,7 +10883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -10894,7 +10900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -10911,7 +10917,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>175</v>
       </c>
@@ -10928,7 +10934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>176</v>
       </c>
@@ -10945,7 +10951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>176</v>
       </c>
@@ -10962,7 +10968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -10979,7 +10985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>176</v>
       </c>
@@ -10996,7 +11002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65">
         <f>CORREL(D2:D64,E2:E64)</f>
         <v>0.64414129478857807</v>

--- a/novelty_scoring/autdata_test_novelty_combined.xlsx
+++ b/novelty_scoring/autdata_test_novelty_combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhec8\Documents\Northwestern_SROP\AUT-Scoring\novelty_scoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E706CD5-7B1A-481D-B17A-A00296050A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965897C5-AAAF-4F82-B440-7058C6A3AFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26100" yWindow="4290" windowWidth="21570" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23820" yWindow="4245" windowWidth="21570" windowHeight="11835" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="486">
   <si>
     <t>id</t>
   </si>
@@ -4749,7 +4749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -8641,13 +8641,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -9737,7 +9740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -9754,7 +9757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>174</v>
       </c>
@@ -9771,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>174</v>
       </c>
@@ -9788,7 +9791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>174</v>
       </c>
@@ -9805,7 +9808,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>174</v>
       </c>
@@ -9822,7 +9825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>174</v>
       </c>
@@ -9839,7 +9842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>176</v>
       </c>
@@ -9856,7 +9859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>176</v>
       </c>
@@ -9873,7 +9876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -9890,10 +9893,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D74">
         <f>CORREL(D2:D73,E2:E73)</f>
         <v>0.70216915343216979</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -9905,8 +9913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/novelty_scoring/autdata_test_novelty_combined.xlsx
+++ b/novelty_scoring/autdata_test_novelty_combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhec8\Documents\Northwestern_SROP\AUT-Scoring\novelty_scoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965897C5-AAAF-4F82-B440-7058C6A3AFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0751D1A8-E995-4552-BBCD-1E48810F5BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23820" yWindow="4245" windowWidth="21570" windowHeight="11835" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23160" yWindow="4260" windowWidth="21570" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cup" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="486">
   <si>
     <t>id</t>
   </si>
@@ -1913,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7194,8 +7194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8641,9 +8641,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -8652,7 +8652,7 @@
     <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>171</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -8804,8 +8804,11 @@
       <c r="E9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>171</v>
       </c>
@@ -8822,7 +8825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>171</v>
       </c>
@@ -8839,7 +8842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -8856,7 +8859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -8873,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -8890,7 +8893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -8907,7 +8910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
